--- a/data/georgia_census/imereti/khoni/average_wages.xlsx
+++ b/data/georgia_census/imereti/khoni/average_wages.xlsx
@@ -1105,13 +1105,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3EE1CEBB-0A96-4474-AF9B-495DB86EC66F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75C62067-F292-4570-82C5-02E498FAF984}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D6410C16-DF58-4E8A-A629-B7F166451553}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{98FA44F6-4C3F-453F-B7F2-7DED424A41B0}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9195C675-D3AD-49D0-A572-ECB08E5D2429}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{955FC6CD-D209-493D-816F-700E2B29670E}"/>
 </file>